--- a/poverty_measurement/input/valor_canasta_nacional_metochi.xlsx
+++ b/poverty_measurement/input/valor_canasta_nacional_metochi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="38">
   <si>
     <t>mes</t>
   </si>
@@ -36,85 +36,88 @@
     <t>bien</t>
   </si>
   <si>
+    <t xml:space="preserve">Carne de res (bistec, carne molida, carne para esmechar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caraotas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji dulce, pimenton, pimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lentejas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan de trigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarina/Mantequilla </t>
+  </si>
+  <si>
     <t xml:space="preserve">Huevos (unidades) </t>
   </si>
   <si>
-    <t xml:space="preserve">Carne de res (bistec, carne molida, carne para esmechar) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caraotas </t>
+    <t xml:space="preserve">Tomates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platanos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cebolla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroz, harina de arroz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso blanco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leche en polvo, completa o descremada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frijoles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azucar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambur </t>
   </si>
   <si>
     <t xml:space="preserve">Cebollin, ajoporro, cilantro y similares </t>
   </si>
   <si>
-    <t xml:space="preserve">Queso blanco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lentejas </t>
+    <t xml:space="preserve">Pastas alimenticias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harina de maiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceite </t>
   </si>
   <si>
     <t xml:space="preserve">Papas </t>
   </si>
   <si>
+    <t xml:space="preserve">Sal </t>
+  </si>
+  <si>
     <t xml:space="preserve">Maiz en granos </t>
   </si>
   <si>
-    <t xml:space="preserve">Platanos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margarina/Mantequilla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harina de maiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frijoles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cebolla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arroz, harina de arroz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pastas alimenticias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pan de trigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azucar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cafe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leche en polvo, completa o descremada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aceite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aji dulce, pimenton, pimiento </t>
+    <t xml:space="preserve">Carne de pollo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hueso de res, pata de res, pata de pollo </t>
   </si>
   <si>
     <t xml:space="preserve">Pescado fresco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carne de pollo </t>
   </si>
   <si>
     <t>precio</t>
@@ -169,7 +172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E138"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -180,13 +183,13 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -197,13 +200,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>152.38095092773438</v>
+        <v>250</v>
       </c>
       <c r="D2" s="1">
-        <v>20.445940097358925</v>
+        <v>35.443149906535666</v>
       </c>
       <c r="E2" s="1">
-        <v>3115.57177734375</v>
+        <v>8860.787109375</v>
       </c>
     </row>
     <row r="3">
@@ -214,13 +217,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>36.374385534860679</v>
+        <v>19.966634064802157</v>
       </c>
       <c r="E3" s="1">
-        <v>9093.5966796875</v>
+        <v>1597.3306884765625</v>
       </c>
     </row>
     <row r="4">
@@ -231,13 +234,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1">
-        <v>19.633884777243704</v>
+        <v>13.124738045813785</v>
       </c>
       <c r="E4" s="1">
-        <v>1570.7108154296875</v>
+        <v>984.3553466796875</v>
       </c>
     </row>
     <row r="5">
@@ -248,13 +251,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>74.375</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1">
-        <v>8.1032367017888092</v>
+        <v>20.806491048441437</v>
       </c>
       <c r="E5" s="1">
-        <v>602.67822265625</v>
+        <v>2288.714111328125</v>
       </c>
     </row>
     <row r="6">
@@ -265,13 +268,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>24.841681587787683</v>
+        <v>44.936797849801273</v>
       </c>
       <c r="E6" s="1">
-        <v>6160.73681640625</v>
+        <v>1123.419921875</v>
       </c>
     </row>
     <row r="7">
@@ -282,13 +285,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>110</v>
+        <v>238.80404663085938</v>
       </c>
       <c r="D7" s="1">
-        <v>21.281791572303149</v>
+        <v>2.0422471421737747</v>
       </c>
       <c r="E7" s="1">
-        <v>2340.9970703125</v>
+        <v>487.69686889648438</v>
       </c>
     </row>
     <row r="8">
@@ -299,13 +302,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>57.5</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
-        <v>15.625446731256394</v>
+        <v>7.1907184984971249</v>
       </c>
       <c r="E8" s="1">
-        <v>898.46319580078125</v>
+        <v>647.1646728515625</v>
       </c>
     </row>
     <row r="9">
@@ -316,13 +319,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>120</v>
+        <v>152.38095092773438</v>
       </c>
       <c r="D9" s="1">
-        <v>14.158486205361339</v>
+        <v>21.357590597785489</v>
       </c>
       <c r="E9" s="1">
-        <v>1699.018310546875</v>
+        <v>3254.489990234375</v>
       </c>
     </row>
     <row r="10">
@@ -333,13 +336,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>31</v>
+        <v>78.5</v>
       </c>
       <c r="D10" s="1">
-        <v>20.644365590111772</v>
+        <v>11.488174438154701</v>
       </c>
       <c r="E10" s="1">
-        <v>639.975341796875</v>
+        <v>901.82171630859375</v>
       </c>
     </row>
     <row r="11">
@@ -350,13 +353,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
-        <v>7.0795370363249175</v>
+        <v>21.061118991721774</v>
       </c>
       <c r="E11" s="1">
-        <v>637.1583251953125</v>
+        <v>652.89471435546875</v>
       </c>
     </row>
     <row r="12">
@@ -367,13 +370,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>31.044525146484375</v>
+        <v>52.5</v>
       </c>
       <c r="D12" s="1">
-        <v>21.341656711162869</v>
+        <v>16.59949027578693</v>
       </c>
       <c r="E12" s="1">
-        <v>662.5416259765625</v>
+        <v>871.4732666015625</v>
       </c>
     </row>
     <row r="13">
@@ -384,13 +387,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1">
-        <v>125.08229499814345</v>
+        <v>108.98256720942982</v>
       </c>
       <c r="E13" s="1">
-        <v>9756.4189453125</v>
+        <v>9808.4306640625</v>
       </c>
     </row>
     <row r="14">
@@ -401,13 +404,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1">
-        <v>8.1866602204613095</v>
+        <v>25.044355738134833</v>
       </c>
       <c r="E14" s="1">
-        <v>425.70632934570313</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="15">
@@ -418,13 +421,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>78.5</v>
+        <v>240</v>
       </c>
       <c r="D15" s="1">
-        <v>10.847633112006628</v>
+        <v>6.6832431293684529</v>
       </c>
       <c r="E15" s="1">
-        <v>851.5391845703125</v>
+        <v>1603.9783935546875</v>
       </c>
     </row>
     <row r="16">
@@ -435,13 +438,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1">
-        <v>15.986164956199577</v>
+        <v>7.9979308518130674</v>
       </c>
       <c r="E16" s="1">
-        <v>839.273681640625</v>
+        <v>415.89239501953125</v>
       </c>
     </row>
     <row r="17">
@@ -452,13 +455,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="D17" s="1">
-        <v>114.05806291951728</v>
+        <v>13.438897903087048</v>
       </c>
       <c r="E17" s="1">
-        <v>10265.2255859375</v>
+        <v>3628.50244140625</v>
       </c>
     </row>
     <row r="18">
@@ -469,13 +472,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="1">
-        <v>120</v>
+        <v>76.5</v>
       </c>
       <c r="D18" s="1">
-        <v>56.50469835856827</v>
+        <v>36.472938917393705</v>
       </c>
       <c r="E18" s="1">
-        <v>6780.56396484375</v>
+        <v>2790.179931640625</v>
       </c>
     </row>
     <row r="19">
@@ -486,13 +489,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>238.80404663085938</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
-        <v>2.1079107336164755</v>
+        <v>36.906875161033526</v>
       </c>
       <c r="E19" s="1">
-        <v>503.37762451171875</v>
+        <v>553.6031494140625</v>
       </c>
     </row>
     <row r="20">
@@ -503,13 +506,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>76.5</v>
+        <v>74.375</v>
       </c>
       <c r="D20" s="1">
-        <v>34.711791786030709</v>
+        <v>8.693557914993951</v>
       </c>
       <c r="E20" s="1">
-        <v>2655.4521484375</v>
+        <v>646.5833740234375</v>
       </c>
     </row>
     <row r="21">
@@ -520,13 +523,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1">
-        <v>38.789141733033816</v>
+        <v>52.569702660840306</v>
       </c>
       <c r="E21" s="1">
-        <v>581.83709716796875</v>
+        <v>6308.3642578125</v>
       </c>
     </row>
     <row r="22">
@@ -537,13 +540,13 @@
         <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1">
-        <v>44.998724714075884</v>
+        <v>117.98951321053738</v>
       </c>
       <c r="E22" s="1">
-        <v>1124.9681396484375</v>
+        <v>9203.181640625</v>
       </c>
     </row>
     <row r="23">
@@ -554,13 +557,13 @@
         <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>270</v>
+        <v>154.89129638671875</v>
       </c>
       <c r="D23" s="1">
-        <v>13.074569240366779</v>
+        <v>25.326121149435664</v>
       </c>
       <c r="E23" s="1">
-        <v>3530.1337890625</v>
+        <v>3922.795654296875</v>
       </c>
     </row>
     <row r="24">
@@ -571,13 +574,13 @@
         <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>240</v>
+        <v>57.5</v>
       </c>
       <c r="D24" s="1">
-        <v>7.367112962051733</v>
+        <v>18.200857185005859</v>
       </c>
       <c r="E24" s="1">
-        <v>1768.1070556640625</v>
+        <v>1046.54931640625</v>
       </c>
     </row>
     <row r="25">
@@ -588,13 +591,13 @@
         <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>154.89129638671875</v>
+        <v>31.044525146484375</v>
       </c>
       <c r="D25" s="1">
-        <v>24.446488092923857</v>
+        <v>22.347732282272272</v>
       </c>
       <c r="E25" s="1">
-        <v>3786.54833984375</v>
+        <v>693.77471923828125</v>
       </c>
     </row>
     <row r="26">
@@ -605,13 +608,13 @@
         <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D26" s="1">
-        <v>12.725953099562737</v>
+        <v>16.607206108358476</v>
       </c>
       <c r="E26" s="1">
-        <v>954.44647216796875</v>
+        <v>1992.86474609375</v>
       </c>
     </row>
     <row r="27">
@@ -619,16 +622,16 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>108.72000122070313</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1">
-        <v>56.50469835856827</v>
+        <v>7.9979308518130674</v>
       </c>
       <c r="E27" s="1">
-        <v>6143.19091796875</v>
+        <v>599.84478759765625</v>
       </c>
     </row>
     <row r="28">
@@ -636,16 +639,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>100</v>
+        <v>227.37115478515625</v>
       </c>
       <c r="D28" s="1">
-        <v>10.847633112006628</v>
+        <v>16.607206108358476</v>
       </c>
       <c r="E28" s="1">
-        <v>1084.7633056640625</v>
+        <v>3775.99951171875</v>
       </c>
     </row>
     <row r="29">
@@ -653,16 +656,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1">
-        <v>500</v>
+        <v>190.4761962890625</v>
       </c>
       <c r="D29" s="1">
-        <v>7.367112962051733</v>
+        <v>21.357590597785489</v>
       </c>
       <c r="E29" s="1">
-        <v>3683.556396484375</v>
+        <v>4068.112548828125</v>
       </c>
     </row>
     <row r="30">
@@ -670,16 +673,16 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1">
-        <v>29.970754541205277</v>
+        <v>16.59949027578693</v>
       </c>
       <c r="E30" s="1">
-        <v>4195.90576171875</v>
+        <v>995.96942138671875</v>
       </c>
     </row>
     <row r="31">
@@ -687,16 +690,16 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>19.616260013331786</v>
+        <v>36.906875161033526</v>
       </c>
       <c r="E31" s="1">
-        <v>3236.682861328125</v>
+        <v>922.671875</v>
       </c>
     </row>
     <row r="32">
@@ -704,16 +707,16 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>167.63897705078125</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1">
-        <v>2.1079107336164755</v>
+        <v>22.347732282272272</v>
       </c>
       <c r="E32" s="1">
-        <v>353.36801147460938</v>
+        <v>782.170654296875</v>
       </c>
     </row>
     <row r="33">
@@ -721,16 +724,16 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1">
-        <v>21.341656711162869</v>
+        <v>108.98256720942982</v>
       </c>
       <c r="E33" s="1">
-        <v>746.9580078125</v>
+        <v>8064.7099609375</v>
       </c>
     </row>
     <row r="34">
@@ -738,16 +741,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1">
-        <v>8.1032367017888092</v>
+        <v>13.124738045813785</v>
       </c>
       <c r="E34" s="1">
-        <v>607.74273681640625</v>
+        <v>918.731689453125</v>
       </c>
     </row>
     <row r="35">
@@ -755,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D35" s="1">
-        <v>20.644365590111772</v>
+        <v>6.6832431293684529</v>
       </c>
       <c r="E35" s="1">
-        <v>1032.21826171875</v>
+        <v>3341.62158203125</v>
       </c>
     </row>
     <row r="36">
@@ -772,16 +775,16 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="D36" s="1">
-        <v>12.725953099562737</v>
+        <v>21.509834220672516</v>
       </c>
       <c r="E36" s="1">
-        <v>890.81671142578125</v>
+        <v>3549.12255859375</v>
       </c>
     </row>
     <row r="37">
@@ -789,16 +792,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1">
-        <v>8.1866602204613095</v>
+        <v>21.061118991721774</v>
       </c>
       <c r="E37" s="1">
-        <v>613.99951171875</v>
+        <v>1053.055908203125</v>
       </c>
     </row>
     <row r="38">
@@ -806,16 +809,16 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>154.34782409667969</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1">
-        <v>24.446488092923857</v>
+        <v>36.472938917393705</v>
       </c>
       <c r="E38" s="1">
-        <v>3773.26220703125</v>
+        <v>2735.470458984375</v>
       </c>
     </row>
     <row r="39">
@@ -823,16 +826,16 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1">
-        <v>7.0795370363249175</v>
+        <v>11.488174438154701</v>
       </c>
       <c r="E39" s="1">
-        <v>991.13519287109375</v>
+        <v>1148.8173828125</v>
       </c>
     </row>
     <row r="40">
@@ -840,16 +843,16 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="D40" s="1">
-        <v>13.074569240366779</v>
+        <v>25.044355738134833</v>
       </c>
       <c r="E40" s="1">
-        <v>3856.998046875</v>
+        <v>6511.53271484375</v>
       </c>
     </row>
     <row r="41">
@@ -857,16 +860,16 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>25</v>
+        <v>86.344520568847656</v>
       </c>
       <c r="D41" s="1">
-        <v>44.998724714075884</v>
+        <v>12.708252231534816</v>
       </c>
       <c r="E41" s="1">
-        <v>1124.9681396484375</v>
+        <v>1097.2879638671875</v>
       </c>
     </row>
     <row r="42">
@@ -874,16 +877,16 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1">
-        <v>90</v>
+        <v>199.5</v>
       </c>
       <c r="D42" s="1">
-        <v>19.633884777243704</v>
+        <v>35.443149906535666</v>
       </c>
       <c r="E42" s="1">
-        <v>1767.0496826171875</v>
+        <v>7070.908203125</v>
       </c>
     </row>
     <row r="43">
@@ -891,16 +894,16 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1">
-        <v>21.281791572303149</v>
+        <v>44.936797849801273</v>
       </c>
       <c r="E43" s="1">
-        <v>2553.81494140625</v>
+        <v>1123.419921875</v>
       </c>
     </row>
     <row r="44">
@@ -908,16 +911,16 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="D44" s="1">
-        <v>38.789141733033816</v>
+        <v>31.430829844119135</v>
       </c>
       <c r="E44" s="1">
-        <v>969.728515625</v>
+        <v>4400.31640625</v>
       </c>
     </row>
     <row r="45">
@@ -925,16 +928,16 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1">
-        <v>260</v>
+        <v>167.63897705078125</v>
       </c>
       <c r="D45" s="1">
-        <v>24.841681587787683</v>
+        <v>2.0422471421737747</v>
       </c>
       <c r="E45" s="1">
-        <v>6458.83740234375</v>
+        <v>342.3602294921875</v>
       </c>
     </row>
     <row r="46">
@@ -945,13 +948,13 @@
         <v>22</v>
       </c>
       <c r="C46" s="1">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="D46" s="1">
-        <v>114.05806291951728</v>
+        <v>13.438897903087048</v>
       </c>
       <c r="E46" s="1">
-        <v>8440.296875</v>
+        <v>3964.474853515625</v>
       </c>
     </row>
     <row r="47">
@@ -959,16 +962,16 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
-        <v>15.986164956199577</v>
+        <v>18.200857185005859</v>
       </c>
       <c r="E47" s="1">
-        <v>959.169921875</v>
+        <v>1274.06005859375</v>
       </c>
     </row>
     <row r="48">
@@ -976,16 +979,16 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1">
-        <v>75</v>
+        <v>108.72000122070313</v>
       </c>
       <c r="D48" s="1">
-        <v>34.711791786030709</v>
+        <v>52.569702660840306</v>
       </c>
       <c r="E48" s="1">
-        <v>2603.38427734375</v>
+        <v>5715.3779296875</v>
       </c>
     </row>
     <row r="49">
@@ -993,16 +996,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C49" s="1">
-        <v>199.5</v>
+        <v>140</v>
       </c>
       <c r="D49" s="1">
-        <v>36.374385534860679</v>
+        <v>7.1907184984971249</v>
       </c>
       <c r="E49" s="1">
-        <v>7256.68994140625</v>
+        <v>1006.7005615234375</v>
       </c>
     </row>
     <row r="50">
@@ -1010,16 +1013,16 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1">
-        <v>80</v>
+        <v>154.34782409667969</v>
       </c>
       <c r="D50" s="1">
-        <v>125.08229499814345</v>
+        <v>25.326121149435664</v>
       </c>
       <c r="E50" s="1">
-        <v>10006.583984375</v>
+        <v>3909.03173828125</v>
       </c>
     </row>
     <row r="51">
@@ -1027,16 +1030,16 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1">
-        <v>190.4761962890625</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1">
-        <v>20.445940097358925</v>
+        <v>8.693557914993951</v>
       </c>
       <c r="E51" s="1">
-        <v>3894.46484375</v>
+        <v>652.016845703125</v>
       </c>
     </row>
     <row r="52">
@@ -1044,16 +1047,16 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D52" s="1">
-        <v>15.625446731256394</v>
+        <v>20.806491048441437</v>
       </c>
       <c r="E52" s="1">
-        <v>1093.78125</v>
+        <v>2496.77880859375</v>
       </c>
     </row>
     <row r="53">
@@ -1061,33 +1064,33 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1">
-        <v>227.37115478515625</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1">
-        <v>14.158486205361339</v>
+        <v>117.98951321053738</v>
       </c>
       <c r="E53" s="1">
-        <v>3219.2314453125</v>
+        <v>9439.1611328125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1">
-        <v>75.5</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1">
-        <v>114.05806291951728</v>
+        <v>19.966634064802157</v>
       </c>
       <c r="E54" s="1">
-        <v>8611.3837890625</v>
+        <v>1796.9970703125</v>
       </c>
     </row>
     <row r="55">
@@ -1095,16 +1098,16 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1">
-        <v>91</v>
+        <v>57.5</v>
       </c>
       <c r="D55" s="1">
-        <v>12.725953099562737</v>
+        <v>21.061118991721774</v>
       </c>
       <c r="E55" s="1">
-        <v>1158.061767578125</v>
+        <v>1211.0142822265625</v>
       </c>
     </row>
     <row r="56">
@@ -1112,16 +1115,16 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="D56" s="1">
-        <v>38.789141733033816</v>
+        <v>6.6832431293684529</v>
       </c>
       <c r="E56" s="1">
-        <v>969.728515625</v>
+        <v>2539.63232421875</v>
       </c>
     </row>
     <row r="57">
@@ -1129,16 +1132,16 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C57" s="1">
-        <v>80</v>
+        <v>163.04347229003906</v>
       </c>
       <c r="D57" s="1">
-        <v>15.625446731256394</v>
+        <v>25.326121149435664</v>
       </c>
       <c r="E57" s="1">
-        <v>1250.0357666015625</v>
+        <v>4129.2587890625</v>
       </c>
     </row>
     <row r="58">
@@ -1146,16 +1149,16 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1">
-        <v>29.970754541205277</v>
+        <v>36.472938917393705</v>
       </c>
       <c r="E58" s="1">
-        <v>3146.92919921875</v>
+        <v>2917.835205078125</v>
       </c>
     </row>
     <row r="59">
@@ -1163,16 +1166,16 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1">
-        <v>33</v>
+        <v>112.5</v>
       </c>
       <c r="D59" s="1">
-        <v>44.998724714075884</v>
+        <v>11.488174438154701</v>
       </c>
       <c r="E59" s="1">
-        <v>1484.9578857421875</v>
+        <v>1292.419677734375</v>
       </c>
     </row>
     <row r="60">
@@ -1180,16 +1183,16 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1">
-        <v>163.04347229003906</v>
+        <v>280</v>
       </c>
       <c r="D60" s="1">
-        <v>24.446488092923857</v>
+        <v>16.607206108358476</v>
       </c>
       <c r="E60" s="1">
-        <v>3985.84033203125</v>
+        <v>4650.017578125</v>
       </c>
     </row>
     <row r="61">
@@ -1197,16 +1200,16 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D61" s="1">
-        <v>19.616260013331786</v>
+        <v>2.0422471421737747</v>
       </c>
       <c r="E61" s="1">
-        <v>3060.136474609375</v>
+        <v>343.0975341796875</v>
       </c>
     </row>
     <row r="62">
@@ -1214,16 +1217,16 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="D62" s="1">
-        <v>7.367112962051733</v>
+        <v>19.966634064802157</v>
       </c>
       <c r="E62" s="1">
-        <v>2799.5029296875</v>
+        <v>1996.6634521484375</v>
       </c>
     </row>
     <row r="63">
@@ -1231,16 +1234,16 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D63" s="1">
-        <v>15.986164956199577</v>
+        <v>117.98951321053738</v>
       </c>
       <c r="E63" s="1">
-        <v>959.169921875</v>
+        <v>10501.06640625</v>
       </c>
     </row>
     <row r="64">
@@ -1248,16 +1251,16 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1">
-        <v>206.66667175292969</v>
+        <v>177.77777099609375</v>
       </c>
       <c r="D64" s="1">
-        <v>36.374385534860679</v>
+        <v>21.357590597785489</v>
       </c>
       <c r="E64" s="1">
-        <v>7517.373046875</v>
+        <v>3796.90478515625</v>
       </c>
     </row>
     <row r="65">
@@ -1265,16 +1268,16 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D65" s="1">
-        <v>34.711791786030709</v>
+        <v>12.708252231534816</v>
       </c>
       <c r="E65" s="1">
-        <v>2776.943359375</v>
+        <v>1524.990234375</v>
       </c>
     </row>
     <row r="66">
@@ -1282,16 +1285,16 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C66" s="1">
-        <v>177.77777099609375</v>
+        <v>33</v>
       </c>
       <c r="D66" s="1">
-        <v>20.445940097358925</v>
+        <v>44.936797849801273</v>
       </c>
       <c r="E66" s="1">
-        <v>3634.833740234375</v>
+        <v>1482.914306640625</v>
       </c>
     </row>
     <row r="67">
@@ -1299,16 +1302,16 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1">
-        <v>112.5</v>
+        <v>206.66667175292969</v>
       </c>
       <c r="D67" s="1">
-        <v>10.847633112006628</v>
+        <v>35.443149906535666</v>
       </c>
       <c r="E67" s="1">
-        <v>1220.3587646484375</v>
+        <v>7324.91796875</v>
       </c>
     </row>
     <row r="68">
@@ -1316,16 +1319,16 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1">
-        <v>14.158486205361339</v>
+        <v>52.569702660840306</v>
       </c>
       <c r="E68" s="1">
-        <v>3964.376220703125</v>
+        <v>5256.97021484375</v>
       </c>
     </row>
     <row r="69">
@@ -1333,16 +1336,16 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="D69" s="1">
-        <v>125.08229499814345</v>
+        <v>13.438897903087048</v>
       </c>
       <c r="E69" s="1">
-        <v>11132.32421875</v>
+        <v>4488.591796875</v>
       </c>
     </row>
     <row r="70">
@@ -1350,16 +1353,16 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D70" s="1">
-        <v>19.633884777243704</v>
+        <v>7.9979308518130674</v>
       </c>
       <c r="E70" s="1">
-        <v>1963.388427734375</v>
+        <v>679.8240966796875</v>
       </c>
     </row>
     <row r="71">
@@ -1367,16 +1370,16 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D71" s="1">
-        <v>8.1866602204613095</v>
+        <v>36.906875161033526</v>
       </c>
       <c r="E71" s="1">
-        <v>695.8660888671875</v>
+        <v>922.671875</v>
       </c>
     </row>
     <row r="72">
@@ -1384,16 +1387,16 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1">
-        <v>83.75</v>
+        <v>91</v>
       </c>
       <c r="D72" s="1">
-        <v>8.1032367017888092</v>
+        <v>13.124738045813785</v>
       </c>
       <c r="E72" s="1">
-        <v>678.64605712890625</v>
+        <v>1194.3511962890625</v>
       </c>
     </row>
     <row r="73">
@@ -1401,16 +1404,16 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C73" s="1">
-        <v>295</v>
+        <v>105</v>
       </c>
       <c r="D73" s="1">
-        <v>24.841681587787683</v>
+        <v>31.430829844119135</v>
       </c>
       <c r="E73" s="1">
-        <v>7328.2958984375</v>
+        <v>3300.237060546875</v>
       </c>
     </row>
     <row r="74">
@@ -1418,16 +1421,16 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1">
-        <v>35.5</v>
+        <v>100</v>
       </c>
       <c r="D74" s="1">
-        <v>21.341656711162869</v>
+        <v>20.806491048441437</v>
       </c>
       <c r="E74" s="1">
-        <v>757.6287841796875</v>
+        <v>2080.649169921875</v>
       </c>
     </row>
     <row r="75">
@@ -1435,16 +1438,16 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="D75" s="1">
-        <v>21.281791572303149</v>
+        <v>25.044355738134833</v>
       </c>
       <c r="E75" s="1">
-        <v>2128.17919921875</v>
+        <v>7388.0849609375</v>
       </c>
     </row>
     <row r="76">
@@ -1452,16 +1455,16 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D76" s="1">
-        <v>2.1079107336164755</v>
+        <v>18.200857185005859</v>
       </c>
       <c r="E76" s="1">
-        <v>354.12899780273438</v>
+        <v>1456.068603515625</v>
       </c>
     </row>
     <row r="77">
@@ -1469,16 +1472,16 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C77" s="1">
-        <v>100</v>
+        <v>35.5</v>
       </c>
       <c r="D77" s="1">
-        <v>56.50469835856827</v>
+        <v>22.347732282272272</v>
       </c>
       <c r="E77" s="1">
-        <v>5650.4697265625</v>
+        <v>793.344482421875</v>
       </c>
     </row>
     <row r="78">
@@ -1486,16 +1489,16 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1">
-        <v>334</v>
+        <v>60</v>
       </c>
       <c r="D78" s="1">
-        <v>13.074569240366779</v>
+        <v>16.59949027578693</v>
       </c>
       <c r="E78" s="1">
-        <v>4366.90625</v>
+        <v>995.96942138671875</v>
       </c>
     </row>
     <row r="79">
@@ -1503,16 +1506,16 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C79" s="1">
-        <v>150</v>
+        <v>83.75</v>
       </c>
       <c r="D79" s="1">
-        <v>7.0795370363249175</v>
+        <v>8.693557914993951</v>
       </c>
       <c r="E79" s="1">
-        <v>1061.9305419921875</v>
+        <v>728.08544921875</v>
       </c>
     </row>
     <row r="80">
@@ -1520,50 +1523,50 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80" s="1">
-        <v>57.5</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1">
-        <v>20.644365590111772</v>
+        <v>7.1907184984971249</v>
       </c>
       <c r="E80" s="1">
-        <v>1187.051025390625</v>
+        <v>1078.6077880859375</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C81" s="1">
-        <v>11.5</v>
+        <v>156</v>
       </c>
       <c r="D81" s="1">
-        <v>38.789141733033816</v>
+        <v>21.509834220672516</v>
       </c>
       <c r="E81" s="1">
-        <v>446.07513427734375</v>
+        <v>3355.5341796875</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C82" s="1">
-        <v>35.178852081298828</v>
+        <v>75.5</v>
       </c>
       <c r="D82" s="1">
-        <v>114.05806291951728</v>
+        <v>108.98256720942982</v>
       </c>
       <c r="E82" s="1">
-        <v>4012.431640625</v>
+        <v>8228.18359375</v>
       </c>
     </row>
     <row r="83">
@@ -1571,16 +1574,16 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C83" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D83" s="1">
-        <v>12.725953099562737</v>
+        <v>8.693557914993951</v>
       </c>
       <c r="E83" s="1">
-        <v>241.79310607910156</v>
+        <v>278.19384765625</v>
       </c>
     </row>
     <row r="84">
@@ -1588,16 +1591,16 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D84" s="1">
-        <v>8.1866602204613095</v>
+        <v>36.472938917393705</v>
       </c>
       <c r="E84" s="1">
-        <v>327.46640014648438</v>
+        <v>1641.2822265625</v>
       </c>
     </row>
     <row r="85">
@@ -1605,16 +1608,16 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C85" s="1">
-        <v>69.785903930664063</v>
+        <v>130</v>
       </c>
       <c r="D85" s="1">
-        <v>36.374385534860679</v>
+        <v>13.438897903087048</v>
       </c>
       <c r="E85" s="1">
-        <v>2538.41943359375</v>
+        <v>1747.0567626953125</v>
       </c>
     </row>
     <row r="86">
@@ -1622,16 +1625,16 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C86" s="1">
         <v>76.190475463867188</v>
       </c>
       <c r="D86" s="1">
-        <v>20.445940097358925</v>
+        <v>21.357590597785489</v>
       </c>
       <c r="E86" s="1">
-        <v>1557.785888671875</v>
+        <v>1627.2449951171875</v>
       </c>
     </row>
     <row r="87">
@@ -1639,16 +1642,16 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" s="1">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D87" s="1">
-        <v>125.08229499814345</v>
+        <v>16.59949027578693</v>
       </c>
       <c r="E87" s="1">
-        <v>4252.7978515625</v>
+        <v>497.98471069335938</v>
       </c>
     </row>
     <row r="88">
@@ -1656,16 +1659,16 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C88" s="1">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D88" s="1">
-        <v>19.633884777243704</v>
+        <v>11.488174438154701</v>
       </c>
       <c r="E88" s="1">
-        <v>1079.8636474609375</v>
+        <v>275.7161865234375</v>
       </c>
     </row>
     <row r="89">
@@ -1673,16 +1676,16 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C89" s="1">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D89" s="1">
-        <v>8.1032367017888092</v>
+        <v>21.061118991721774</v>
       </c>
       <c r="E89" s="1">
-        <v>259.3035888671875</v>
+        <v>294.85565185546875</v>
       </c>
     </row>
     <row r="90">
@@ -1690,16 +1693,16 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C90" s="1">
-        <v>14</v>
+        <v>67.5</v>
       </c>
       <c r="D90" s="1">
-        <v>20.644365590111772</v>
+        <v>21.509834220672516</v>
       </c>
       <c r="E90" s="1">
-        <v>289.0211181640625</v>
+        <v>1451.913818359375</v>
       </c>
     </row>
     <row r="91">
@@ -1707,16 +1710,16 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C91" s="1">
-        <v>35.089424133300781</v>
+        <v>19</v>
       </c>
       <c r="D91" s="1">
-        <v>21.281791572303149</v>
+        <v>13.124738045813785</v>
       </c>
       <c r="E91" s="1">
-        <v>746.76580810546875</v>
+        <v>249.37002563476563</v>
       </c>
     </row>
     <row r="92">
@@ -1724,16 +1727,16 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C92" s="1">
-        <v>65.76922607421875</v>
+        <v>40</v>
       </c>
       <c r="D92" s="1">
-        <v>2.1079107336164755</v>
+        <v>7.9979308518130674</v>
       </c>
       <c r="E92" s="1">
-        <v>138.63565063476563</v>
+        <v>319.917236328125</v>
       </c>
     </row>
     <row r="93">
@@ -1741,16 +1744,16 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1">
-        <v>70.652175903320313</v>
+        <v>69.785903930664063</v>
       </c>
       <c r="D93" s="1">
-        <v>24.446488092923857</v>
+        <v>35.443149906535666</v>
       </c>
       <c r="E93" s="1">
-        <v>1727.1976318359375</v>
+        <v>2473.432373046875</v>
       </c>
     </row>
     <row r="94">
@@ -1758,16 +1761,16 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D94" s="1">
-        <v>29.970754541205277</v>
+        <v>22.347732282272272</v>
       </c>
       <c r="E94" s="1">
-        <v>1798.2452392578125</v>
+        <v>312.86825561523438</v>
       </c>
     </row>
     <row r="95">
@@ -1775,16 +1778,16 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D95" s="1">
-        <v>15.986164956199577</v>
+        <v>44.936797849801273</v>
       </c>
       <c r="E95" s="1">
-        <v>479.5849609375</v>
+        <v>2696.207763671875</v>
       </c>
     </row>
     <row r="96">
@@ -1795,13 +1798,13 @@
         <v>29</v>
       </c>
       <c r="C96" s="1">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="D96" s="1">
-        <v>7.367112962051733</v>
+        <v>18.200857185005859</v>
       </c>
       <c r="E96" s="1">
-        <v>1399.75146484375</v>
+        <v>364.01715087890625</v>
       </c>
     </row>
     <row r="97">
@@ -1809,16 +1812,16 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C97" s="1">
-        <v>525.894287109375</v>
+        <v>190</v>
       </c>
       <c r="D97" s="1">
-        <v>14.158486205361339</v>
+        <v>6.6832431293684529</v>
       </c>
       <c r="E97" s="1">
-        <v>7445.8671875</v>
+        <v>1269.816162109375</v>
       </c>
     </row>
     <row r="98">
@@ -1826,16 +1829,16 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C98" s="1">
-        <v>45</v>
+        <v>102.76828002929688</v>
       </c>
       <c r="D98" s="1">
-        <v>34.711791786030709</v>
+        <v>7.1907184984971249</v>
       </c>
       <c r="E98" s="1">
-        <v>1562.0306396484375</v>
+        <v>738.977783203125</v>
       </c>
     </row>
     <row r="99">
@@ -1843,16 +1846,16 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C99" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D99" s="1">
-        <v>24.841681587787683</v>
+        <v>31.430829844119135</v>
       </c>
       <c r="E99" s="1">
-        <v>1987.33447265625</v>
+        <v>1885.8497314453125</v>
       </c>
     </row>
     <row r="100">
@@ -1863,13 +1866,13 @@
         <v>28</v>
       </c>
       <c r="C100" s="1">
-        <v>130</v>
+        <v>70.652175903320313</v>
       </c>
       <c r="D100" s="1">
-        <v>13.074569240366779</v>
+        <v>25.326121149435664</v>
       </c>
       <c r="E100" s="1">
-        <v>1699.6939697265625</v>
+        <v>1789.3455810546875</v>
       </c>
     </row>
     <row r="101">
@@ -1877,16 +1880,16 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C101" s="1">
-        <v>102.76828002929688</v>
+        <v>11.5</v>
       </c>
       <c r="D101" s="1">
-        <v>7.0795370363249175</v>
+        <v>36.906875161033526</v>
       </c>
       <c r="E101" s="1">
-        <v>727.55181884765625</v>
+        <v>424.4290771484375</v>
       </c>
     </row>
     <row r="102">
@@ -1894,16 +1897,16 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C102" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D102" s="1">
-        <v>15.625446731256394</v>
+        <v>117.98951321053738</v>
       </c>
       <c r="E102" s="1">
-        <v>312.50894165039063</v>
+        <v>4011.6435546875</v>
       </c>
     </row>
     <row r="103">
@@ -1911,16 +1914,16 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C103" s="1">
-        <v>14</v>
+        <v>35.089424133300781</v>
       </c>
       <c r="D103" s="1">
-        <v>21.341656711162869</v>
+        <v>20.806491048441437</v>
       </c>
       <c r="E103" s="1">
-        <v>298.783203125</v>
+        <v>730.0877685546875</v>
       </c>
     </row>
     <row r="104">
@@ -1928,16 +1931,16 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C104" s="1">
-        <v>41</v>
+        <v>39.576210021972656</v>
       </c>
       <c r="D104" s="1">
-        <v>56.50469835856827</v>
+        <v>12.708252231534816</v>
       </c>
       <c r="E104" s="1">
-        <v>2316.692626953125</v>
+        <v>502.9444580078125</v>
       </c>
     </row>
     <row r="105">
@@ -1945,16 +1948,16 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C105" s="1">
-        <v>24</v>
+        <v>35.178852081298828</v>
       </c>
       <c r="D105" s="1">
-        <v>10.847633112006628</v>
+        <v>108.98256720942982</v>
       </c>
       <c r="E105" s="1">
-        <v>260.34320068359375</v>
+        <v>3833.881591796875</v>
       </c>
     </row>
     <row r="106">
@@ -1962,16 +1965,16 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C106" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D106" s="1">
-        <v>44.998724714075884</v>
+        <v>25.044355738134833</v>
       </c>
       <c r="E106" s="1">
-        <v>2699.923583984375</v>
+        <v>2003.5484619140625</v>
       </c>
     </row>
     <row r="107">
@@ -1979,67 +1982,67 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1">
-        <v>67.5</v>
+        <v>55</v>
       </c>
       <c r="D107" s="1">
-        <v>19.616260013331786</v>
+        <v>19.966634064802157</v>
       </c>
       <c r="E107" s="1">
-        <v>1324.0975341796875</v>
+        <v>1098.1649169921875</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C108" s="1">
-        <v>15.850000381469727</v>
+        <v>525.894287109375</v>
       </c>
       <c r="D108" s="1">
-        <v>21.341656711162869</v>
+        <v>16.607206108358476</v>
       </c>
       <c r="E108" s="1">
-        <v>338.2652587890625</v>
+        <v>8733.634765625</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C109" s="1">
-        <v>26.388082504272461</v>
+        <v>41</v>
       </c>
       <c r="D109" s="1">
-        <v>15.625446731256394</v>
+        <v>52.569702660840306</v>
       </c>
       <c r="E109" s="1">
-        <v>412.32559204101563</v>
+        <v>2155.35791015625</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C110" s="1">
-        <v>52.776165008544922</v>
+        <v>65.76922607421875</v>
       </c>
       <c r="D110" s="1">
-        <v>56.50469835856827</v>
+        <v>2.0422471421737747</v>
       </c>
       <c r="E110" s="1">
-        <v>2982.101318359375</v>
+        <v>134.3170166015625</v>
       </c>
     </row>
     <row r="111">
@@ -2050,13 +2053,13 @@
         <v>30</v>
       </c>
       <c r="C111" s="1">
-        <v>77</v>
+        <v>15.850000381469727</v>
       </c>
       <c r="D111" s="1">
-        <v>24.446488092923857</v>
+        <v>22.347732282272272</v>
       </c>
       <c r="E111" s="1">
-        <v>1882.379638671875</v>
+        <v>354.21157836914063</v>
       </c>
     </row>
     <row r="112">
@@ -2064,16 +2067,16 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C112" s="1">
-        <v>40.25</v>
+        <v>45.589572906494141</v>
       </c>
       <c r="D112" s="1">
-        <v>114.05806291951728</v>
+        <v>36.472938917393705</v>
       </c>
       <c r="E112" s="1">
-        <v>4590.8369140625</v>
+        <v>1662.7857666015625</v>
       </c>
     </row>
     <row r="113">
@@ -2084,13 +2087,13 @@
         <v>10</v>
       </c>
       <c r="C113" s="1">
-        <v>59.599998474121094</v>
+        <v>65.970199584960938</v>
       </c>
       <c r="D113" s="1">
-        <v>8.1032367017888092</v>
+        <v>20.806491048441437</v>
       </c>
       <c r="E113" s="1">
-        <v>482.952880859375</v>
+        <v>1372.6083984375</v>
       </c>
     </row>
     <row r="114">
@@ -2101,13 +2104,13 @@
         <v>27</v>
       </c>
       <c r="C114" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D114" s="1">
-        <v>44.998724714075884</v>
+        <v>117.98951321053738</v>
       </c>
       <c r="E114" s="1">
-        <v>989.971923828125</v>
+        <v>4719.58056640625</v>
       </c>
     </row>
     <row r="115">
@@ -2115,16 +2118,16 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C115" s="1">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D115" s="1">
-        <v>38.789141733033816</v>
+        <v>12.708252231534816</v>
       </c>
       <c r="E115" s="1">
-        <v>698.20452880859375</v>
+        <v>635.41259765625</v>
       </c>
     </row>
     <row r="116">
@@ -2132,16 +2135,16 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C116" s="1">
-        <v>65.970199584960938</v>
+        <v>25.694042205810547</v>
       </c>
       <c r="D116" s="1">
-        <v>21.281791572303149</v>
+        <v>21.061118991721774</v>
       </c>
       <c r="E116" s="1">
-        <v>1403.9639892578125</v>
+        <v>541.145263671875</v>
       </c>
     </row>
     <row r="117">
@@ -2149,16 +2152,16 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C117" s="1">
-        <v>221.11111450195313</v>
+        <v>131.94041442871094</v>
       </c>
       <c r="D117" s="1">
-        <v>7.367112962051733</v>
+        <v>13.438897903087048</v>
       </c>
       <c r="E117" s="1">
-        <v>1628.9505615234375</v>
+        <v>1773.1337890625</v>
       </c>
     </row>
     <row r="118">
@@ -2166,16 +2169,16 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1">
-        <v>88.888885498046875</v>
+        <v>82.900001525878906</v>
       </c>
       <c r="D118" s="1">
-        <v>20.445940097358925</v>
+        <v>19.966634064802157</v>
       </c>
       <c r="E118" s="1">
-        <v>1817.4168701171875</v>
+        <v>1655.2340087890625</v>
       </c>
     </row>
     <row r="119">
@@ -2183,16 +2186,16 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C119" s="1">
-        <v>82.900001525878906</v>
+        <v>100</v>
       </c>
       <c r="D119" s="1">
-        <v>19.633884777243704</v>
+        <v>25.044355738134833</v>
       </c>
       <c r="E119" s="1">
-        <v>1627.6490478515625</v>
+        <v>2504.435546875</v>
       </c>
     </row>
     <row r="120">
@@ -2200,16 +2203,16 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C120" s="1">
-        <v>40</v>
+        <v>86.666664123535156</v>
       </c>
       <c r="D120" s="1">
-        <v>125.08229499814345</v>
+        <v>35.443149906535666</v>
       </c>
       <c r="E120" s="1">
-        <v>5003.2919921875</v>
+        <v>3071.739501953125</v>
       </c>
     </row>
     <row r="121">
@@ -2217,16 +2220,16 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C121" s="1">
         <v>66.150001525878906</v>
       </c>
       <c r="D121" s="1">
-        <v>8.1866602204613095</v>
+        <v>7.9979308518130674</v>
       </c>
       <c r="E121" s="1">
-        <v>541.547607421875</v>
+        <v>529.0631103515625</v>
       </c>
     </row>
     <row r="122">
@@ -2234,16 +2237,16 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C122" s="1">
-        <v>86.666664123535156</v>
+        <v>22</v>
       </c>
       <c r="D122" s="1">
-        <v>36.374385534860679</v>
+        <v>44.936797849801273</v>
       </c>
       <c r="E122" s="1">
-        <v>3152.446533203125</v>
+        <v>988.60955810546875</v>
       </c>
     </row>
     <row r="123">
@@ -2251,16 +2254,16 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C123" s="1">
-        <v>29.350000381469727</v>
+        <v>26.388082504272461</v>
       </c>
       <c r="D123" s="1">
-        <v>10.847633112006628</v>
+        <v>18.200857185005859</v>
       </c>
       <c r="E123" s="1">
-        <v>318.37802124023438</v>
+        <v>480.28573608398438</v>
       </c>
     </row>
     <row r="124">
@@ -2268,16 +2271,16 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C124" s="1">
-        <v>32.5</v>
+        <v>80</v>
       </c>
       <c r="D124" s="1">
-        <v>15.986164956199577</v>
+        <v>2.0422471421737747</v>
       </c>
       <c r="E124" s="1">
-        <v>519.55035400390625</v>
+        <v>163.37977600097656</v>
       </c>
     </row>
     <row r="125">
@@ -2285,16 +2288,16 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C125" s="1">
-        <v>131.94041442871094</v>
+        <v>221.11111450195313</v>
       </c>
       <c r="D125" s="1">
-        <v>13.074569240366779</v>
+        <v>6.6832431293684529</v>
       </c>
       <c r="E125" s="1">
-        <v>1725.0640869140625</v>
+        <v>1477.7393798828125</v>
       </c>
     </row>
     <row r="126">
@@ -2302,16 +2305,16 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C126" s="1">
-        <v>48.285499572753906</v>
+        <v>52.776165008544922</v>
       </c>
       <c r="D126" s="1">
-        <v>12.725953099562737</v>
+        <v>52.569702660840306</v>
       </c>
       <c r="E126" s="1">
-        <v>614.47900390625</v>
+        <v>2774.42724609375</v>
       </c>
     </row>
     <row r="127">
@@ -2319,16 +2322,16 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C127" s="1">
-        <v>91.900001525878906</v>
+        <v>77</v>
       </c>
       <c r="D127" s="1">
-        <v>29.970754541205277</v>
+        <v>25.326121149435664</v>
       </c>
       <c r="E127" s="1">
-        <v>2754.3125</v>
+        <v>1950.111328125</v>
       </c>
     </row>
     <row r="128">
@@ -2336,16 +2339,16 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1">
-        <v>92</v>
+        <v>88.888885498046875</v>
       </c>
       <c r="D128" s="1">
-        <v>19.616260013331786</v>
+        <v>21.357590597785489</v>
       </c>
       <c r="E128" s="1">
-        <v>1804.6959228515625</v>
+        <v>1898.452392578125</v>
       </c>
     </row>
     <row r="129">
@@ -2353,16 +2356,16 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C129" s="1">
-        <v>45.589572906494141</v>
+        <v>75</v>
       </c>
       <c r="D129" s="1">
-        <v>34.711791786030709</v>
+        <v>7.1907184984971249</v>
       </c>
       <c r="E129" s="1">
-        <v>1582.4957275390625</v>
+        <v>539.30389404296875</v>
       </c>
     </row>
     <row r="130">
@@ -2370,16 +2373,16 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C130" s="1">
-        <v>80</v>
+        <v>40.25</v>
       </c>
       <c r="D130" s="1">
-        <v>2.1079107336164755</v>
+        <v>108.98256720942982</v>
       </c>
       <c r="E130" s="1">
-        <v>168.63285827636719</v>
+        <v>4386.54833984375</v>
       </c>
     </row>
     <row r="131">
@@ -2390,13 +2393,13 @@
         <v>15</v>
       </c>
       <c r="C131" s="1">
-        <v>25.694042205810547</v>
+        <v>29.350000381469727</v>
       </c>
       <c r="D131" s="1">
-        <v>20.644365590111772</v>
+        <v>11.488174438154701</v>
       </c>
       <c r="E131" s="1">
-        <v>530.43719482421875</v>
+        <v>337.17791748046875</v>
       </c>
     </row>
     <row r="132">
@@ -2404,16 +2407,16 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C132" s="1">
-        <v>75</v>
+        <v>48.285499572753906</v>
       </c>
       <c r="D132" s="1">
-        <v>7.0795370363249175</v>
+        <v>13.124738045813785</v>
       </c>
       <c r="E132" s="1">
-        <v>530.96527099609375</v>
+        <v>633.73455810546875</v>
       </c>
     </row>
     <row r="133">
@@ -2421,16 +2424,16 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C133" s="1">
-        <v>145.64999389648438</v>
+        <v>91.900001525878906</v>
       </c>
       <c r="D133" s="1">
-        <v>14.158486205361339</v>
+        <v>31.430829844119135</v>
       </c>
       <c r="E133" s="1">
-        <v>2062.183349609375</v>
+        <v>2888.493408203125</v>
       </c>
     </row>
     <row r="134">
@@ -2438,16 +2441,84 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C134" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D134" s="1">
-        <v>24.841681587787683</v>
+        <v>36.906875161033526</v>
       </c>
       <c r="E134" s="1">
-        <v>2484.168212890625</v>
+        <v>664.32373046875</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="1">
+        <v>145.64999389648438</v>
+      </c>
+      <c r="D135" s="1">
+        <v>16.607206108358476</v>
+      </c>
+      <c r="E135" s="1">
+        <v>2418.83935546875</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" s="1">
+        <v>92</v>
+      </c>
+      <c r="D136" s="1">
+        <v>21.509834220672516</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1978.90478515625</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="D137" s="1">
+        <v>16.59949027578693</v>
+      </c>
+      <c r="E137" s="1">
+        <v>539.48345947265625</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="1">
+        <v>59.599998474121094</v>
+      </c>
+      <c r="D138" s="1">
+        <v>8.693557914993951</v>
+      </c>
+      <c r="E138" s="1">
+        <v>518.13604736328125</v>
       </c>
     </row>
   </sheetData>
